--- a/simulations/cleaned_inclusion_exclusion/Moran_2021 IEC_clean/output/tables/metrics/metrics_sim.xlsx
+++ b/simulations/cleaned_inclusion_exclusion/Moran_2021 IEC_clean/output/tables/metrics/metrics_sim.xlsx
@@ -713,31 +713,31 @@
         <v>36</v>
       </c>
       <c r="C3">
-        <v>0.1261261261261261</v>
+        <v>0.05405405405405406</v>
       </c>
       <c r="D3">
-        <v>0.3873873873873874</v>
+        <v>0.3063063063063063</v>
       </c>
       <c r="E3">
-        <v>0.7117117117117117</v>
+        <v>0.7207207207207207</v>
       </c>
       <c r="F3">
-        <v>0.9369369369369369</v>
+        <v>0.9279279279279279</v>
       </c>
       <c r="G3">
         <v>0.9819819819819819</v>
       </c>
       <c r="H3">
-        <v>0.1189106252397392</v>
+        <v>0.1378979670118911</v>
       </c>
       <c r="I3">
-        <v>0.3538847489464774</v>
+        <v>0.3793458361359596</v>
       </c>
       <c r="J3">
-        <v>0.02702702702702703</v>
+        <v>-0.04504504504504504</v>
       </c>
       <c r="K3">
-        <v>1861.873873873874</v>
+        <v>1991.801801801802</v>
       </c>
       <c r="L3">
         <v>11</v>
@@ -755,34 +755,34 @@
         <v>99</v>
       </c>
       <c r="Q3">
-        <v>373</v>
+        <v>600</v>
       </c>
       <c r="R3">
-        <v>833</v>
+        <v>981</v>
       </c>
       <c r="S3">
-        <v>1461</v>
+        <v>1656</v>
       </c>
       <c r="T3">
-        <v>2617</v>
+        <v>2769</v>
       </c>
       <c r="U3">
-        <v>3503</v>
+        <v>3541</v>
       </c>
       <c r="V3">
-        <v>4730</v>
+        <v>4503</v>
       </c>
       <c r="W3">
-        <v>4270</v>
+        <v>4122</v>
       </c>
       <c r="X3">
-        <v>3642</v>
+        <v>3447</v>
       </c>
       <c r="Y3">
-        <v>2486</v>
+        <v>2334</v>
       </c>
       <c r="Z3">
-        <v>1600</v>
+        <v>1562</v>
       </c>
       <c r="AA3">
         <v>100</v>
@@ -800,19 +800,19 @@
         <v>12</v>
       </c>
       <c r="AF3">
-        <v>0.926906</v>
+        <v>0.882422</v>
       </c>
       <c r="AG3">
-        <v>0.836763</v>
+        <v>0.80776</v>
       </c>
       <c r="AH3">
-        <v>0.7136980000000001</v>
+        <v>0.675485</v>
       </c>
       <c r="AI3">
-        <v>0.487164</v>
+        <v>0.457378</v>
       </c>
       <c r="AJ3">
-        <v>0.313541</v>
+        <v>0.306094</v>
       </c>
     </row>
   </sheetData>
